--- a/report/002643万润股份/002643.xlsx
+++ b/report/002643万润股份/002643.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/002643万润股份/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/002643万润股份/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CAC90-4BE1-2A4C-9CC9-4D5651DC7F01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA9DFB-4309-4549-B30A-2172CD43F958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-37280" yWindow="-5840" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>年度财务</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>2018年收入增长低。Q2/Q3收入曲线下降</t>
+  </si>
+  <si>
+    <t>三大业务分散，前途不明确。收入增涨较低。</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,9 @@
                 <c:pt idx="5">
                   <c:v>24.56</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -511,6 +517,9 @@
                 <c:pt idx="5">
                   <c:v>14.83</c:v>
                 </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>15.63</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -612,6 +621,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,6 +1057,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3996,14 +4014,30 @@
       <c r="A9" s="10">
         <v>2018</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="14">
+        <v>26.32</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15.63</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.16700000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="14"/>
@@ -4244,8 +4278,12 @@
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="14">
+        <v>7.82</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10"/>
@@ -4380,7 +4418,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4505,12 +4543,24 @@
       <c r="A6" s="10">
         <v>2018</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>70</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.2</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
@@ -4521,17 +4571,23 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="19">
       <c r="A8" s="10"/>
       <c r="B8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="K8" s="12">
+        <v>43554</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10"/>
